--- a/bank statement generator/bank_statements/statement_26.xlsx
+++ b/bank statement generator/bank_statements/statement_26.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 17.01.2024</t>
+          <t>KONTOSTAND AM 10.12.2023</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,146 +759,130 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>21.01.</t>
+          <t>12.12.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>22.01.</t>
+          <t>13.12.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>MCDONALDS Regensburg</t>
+          <t>KARTENZAHLUNG SHELL TANKSTELLE</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>36,62-</t>
+          <t>57,95-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>25.01.</t>
+          <t>16.12.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>26.01.</t>
+          <t>17.12.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>BEITRAG Allianz SE K-89187751</t>
+          <t>BEITRAG Allianz SE K-67927348</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>53,09-</t>
+          <t>52,73-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>26.01.</t>
+          <t>19.12.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>27.01.</t>
+          <t>20.12.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>KARTENZ./26.01 LIDL RO</t>
+          <t>MCDONALDS Gera</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>112,17-</t>
+          <t>31,83-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>29.01.</t>
+          <t>20.12.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>30.01.</t>
+          <t>21.12.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>KARTENZAHLUNG ARAL TANKSTELLE</t>
+          <t>PAYPAL VZJBVK</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>52,81-</t>
+          <t>89,42-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>02.02.</t>
+          <t>24.12.</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>03.02.</t>
+          <t>25.12.</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>PAYPAL QECNQU</t>
+          <t>PAYPAL SQDPLP</t>
         </is>
       </c>
       <c r="E10" s="17" t="inlineStr">
         <is>
-          <t>47,48-</t>
+          <t>51,64-</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>06.02.</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>07.02.</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>AMAZON.DE MKTPLC EU QOWGWH</t>
-        </is>
-      </c>
-      <c r="E11" s="17" t="inlineStr">
-        <is>
-          <t>165,77-</t>
-        </is>
-      </c>
+      <c r="B11" s="8" t="n"/>
+      <c r="C11" s="8" t="n"/>
+      <c r="D11" s="8" t="n"/>
+      <c r="E11" s="12" t="n"/>
     </row>
     <row r="12" ht="27.75" customHeight="1">
       <c r="B12" s="8" t="n"/>
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 10.02.2024</t>
+          <t>KONTOSTAND AM 27.12.2023</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>467,94-</t>
+          <t>283,57-</t>
         </is>
       </c>
     </row>
@@ -906,7 +890,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 20.02.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 01.01.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
